--- a/biology/Zoologie/Ebenavia/Ebenavia.xlsx
+++ b/biology/Zoologie/Ebenavia/Ebenavia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ebenavia est un genre de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ebenavia est un genre de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans les îles de l'Afrique de l'Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent dans les îles de l'Afrique de l'Est.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des geckos nocturnes et arboricoles.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (22 septembre 2012)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (22 septembre 2012) :
 Ebenavia inunguis Boettger, 1878
 Ebenavia maintimainty Nussbaum &amp; Raxworthy, 1998</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boettger, 1878 "1877" : Die Reptilien und Amphibien von Madagascar. I. Studien über Reptilien aus Madagascar. II. Aufzählung der bis jetzt von Madagascar bekannt gewordenen Reptilien und Amphibien. III. Bemerkungen über die verwandtschaftlichen und geographischen Beziehunge. Abhandlungen der Senckenbergischen Naturforschenden Gesellschaft in Frankfurt, vol. 11, p. 1-56 (texte intégral).</t>
         </is>
